--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T01:19:57+00:00</t>
+    <t>2021-11-16T04:51:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T04:51:36+00:00</t>
+    <t>2021-11-17T13:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-17T13:47:01+00:00</t>
+    <t>2021-11-18T22:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-18T22:04:47+00:00</t>
+    <t>2021-11-19T00:04:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:04:47+00:00</t>
+    <t>2021-11-19T00:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T00:13:18+00:00</t>
+    <t>2021-11-19T18:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:00:23+00:00</t>
+    <t>2021-11-19T18:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T18:02:16+00:00</t>
+    <t>2021-11-19T21:14:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T21:14:24+00:00</t>
+    <t>2021-11-22T14:07:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:07:32+00:00</t>
+    <t>2021-11-22T14:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T14:10:59+00:00</t>
+    <t>2021-11-23T21:25:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-23T21:25:23+00:00</t>
+    <t>2021-11-24T19:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T19:02:36+00:00</t>
+    <t>2021-11-24T22:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-24T22:31:44+00:00</t>
+    <t>2021-11-30T21:05:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ValueSet-analysis-type.xlsx
+++ b/ig/ValueSet-analysis-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
